--- a/WorkingFolder/svc_poly_5.xlsx
+++ b/WorkingFolder/svc_poly_5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 10,FalsePositive: 4)</t>
+          <t>[[ 0  4  0  0  0  0]
+ [ 0 10  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -444,7 +449,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -452,23 +457,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>90.8</v>
+        <v>22.9</v>
       </c>
       <c r="F3" t="n">
-        <v>88.5</v>
+        <v>25</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 1 0 0 3]
+ [0 1 0 0 2]
+ [0 0 0 0 3]
+ [0 0 0 0 3]
+ [0 0 0 0 3]]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.250, F1-Score (macro): 0.151</t>
         </is>
       </c>
     </row>
@@ -476,7 +485,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -484,23 +493,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>97.39999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F4" t="n">
-        <v>23.1</v>
+        <v>88.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 6,FalsePositive: 20)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -508,7 +518,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -516,23 +526,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>92.90000000000001</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>23.1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[ 0 20]
+ [ 0  6]]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -540,7 +551,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,23 +559,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>94.39999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>57.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 4,FalsePositive: 3)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -572,7 +584,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -580,23 +592,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>73.09999999999999</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [0 4]]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
+          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -604,7 +617,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -612,23 +625,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>82.8</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[19  0]
+ [ 7  0]]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -636,67 +650,65 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
+          <t>emotion_v_rest_dict</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[[0 3]
+ [0 7]]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>emotion_v_emotion_dict</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>{'C': 150, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>63.2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>42.9</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 3,FalsePositive: 4)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[[0 4]
+ [0 3]]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>_no_ma</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>complete_dict</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>{'C': 100, 'gamma': 0.01, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 10,FalsePositive: 4)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
         </is>
       </c>
     </row>
@@ -708,7 +720,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -716,23 +728,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>89.5</v>
+        <v>55.3</v>
       </c>
       <c r="F11" t="n">
-        <v>88.5</v>
+        <v>38.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[ 0  4  0  0  0  0]
+ [ 0 10  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
         </is>
       </c>
     </row>
@@ -744,7 +761,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -752,23 +769,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>94.69999999999999</v>
+        <v>31.2</v>
       </c>
       <c r="F12" t="n">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 6,FalsePositive: 20)</t>
+          <t>[[0 1 0 0 3]
+ [0 1 0 0 2]
+ [0 0 0 0 3]
+ [0 0 0 0 3]
+ [0 0 0 0 3]]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.250, F1-Score (macro): 0.151</t>
         </is>
       </c>
     </row>
@@ -780,7 +801,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -788,23 +809,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>89.3</v>
+        <v>89.5</v>
       </c>
       <c r="F13" t="n">
-        <v>70</v>
+        <v>88.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -816,7 +838,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -824,23 +846,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>88.90000000000001</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>57.09999999999999</v>
+        <v>23.1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 4,FalsePositive: 3)</t>
+          <t>[[ 0 20]
+ [ 0  6]]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
+          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -852,7 +875,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -860,23 +883,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>89.3</v>
       </c>
       <c r="F15" t="n">
-        <v>73.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -888,7 +912,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -896,23 +920,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>82.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>70</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[0 3]
+ [0 4]]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -924,7 +949,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -932,35 +957,36 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>57.9</v>
+        <v>75</v>
       </c>
       <c r="F17" t="n">
-        <v>42.9</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 3,FalsePositive: 4)</t>
+          <t>[[19  0]
+ [ 7  0]]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>_no_zf</t>
+          <t>_no_ma</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -968,35 +994,36 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'C': 150, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>52.6</v>
+        <v>82.8</v>
       </c>
       <c r="F18" t="n">
-        <v>38.5</v>
+        <v>70</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 10,FalsePositive: 4)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>_no_zf</t>
+          <t>_no_ma</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1004,23 +1031,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>86.8</v>
+        <v>57.9</v>
       </c>
       <c r="F19" t="n">
-        <v>88.5</v>
+        <v>42.9</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 4]
+ [0 3]]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
+          <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1060,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1040,23 +1068,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 150, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>97.39999999999999</v>
+        <v>55.3</v>
       </c>
       <c r="F20" t="n">
-        <v>23.1</v>
+        <v>38.5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 6,FalsePositive: 20)</t>
+          <t>[[ 0  4  0  0  0  0]
+ [ 0 10  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1101,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1076,23 +1109,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 150, 'gamma': 0.001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>89.3</v>
+        <v>33.3</v>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>18.8</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[0 4 0 0 0]
+ [0 3 0 0 0]
+ [0 3 0 0 0]
+ [0 3 0 0 0]
+ [0 3 0 0 0]]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.188, F1-Score (macro): 0.063</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1141,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1112,23 +1149,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>88.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="F22" t="n">
-        <v>57.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 4,FalsePositive: 3)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1178,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1148,23 +1186,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>73.09999999999999</v>
+        <v>23.1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[ 0 20]
+ [ 0  6]]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
+          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1215,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1184,18 +1223,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>82.8</v>
+        <v>89.3</v>
       </c>
       <c r="F24" t="n">
         <v>70</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1212,7 +1252,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1220,35 +1260,36 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>57.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>42.9</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 3,FalsePositive: 4)</t>
+          <t>[[0 3]
+ [0 4]]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
+          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>_bvp_sel_only</t>
+          <t>_no_zf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1256,35 +1297,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>51.3</v>
+        <v>75</v>
       </c>
       <c r="F26" t="n">
-        <v>38.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 10,FalsePositive: 4)</t>
+          <t>[[19  0]
+ [ 7  0]]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>_bvp_sel_only</t>
+          <t>_no_zf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1292,35 +1334,36 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>89.5</v>
+        <v>82.8</v>
       </c>
       <c r="F27" t="n">
-        <v>88.5</v>
+        <v>70</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>_bvp_sel_only</t>
+          <t>_no_zf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1328,23 +1371,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>96.09999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="F28" t="n">
-        <v>23.1</v>
+        <v>42.9</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 6,FalsePositive: 20)</t>
+          <t>[[0 4]
+ [0 3]]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
+          <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1400,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1364,23 +1408,28 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 200, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>85.7</v>
+        <v>51.3</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>38.5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>RightNegative: 3, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[ 0  4  0  0  0  0]
+ [ 0 10  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1441,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1400,23 +1449,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 150, 'gamma': 0.001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>88.90000000000001</v>
+        <v>35.4</v>
       </c>
       <c r="F30" t="n">
-        <v>57.09999999999999</v>
+        <v>25</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 4,FalsePositive: 3)</t>
+          <t>[[0 1 0 0 3]
+ [0 1 0 0 2]
+ [0 0 0 0 3]
+ [0 0 0 0 3]
+ [0 0 0 0 3]]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.250, F1-Score (macro): 0.151</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1481,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1436,23 +1489,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>75</v>
+        <v>89.5</v>
       </c>
       <c r="F31" t="n">
-        <v>73.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1518,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1472,23 +1526,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 200, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>75.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>70</v>
+        <v>23.1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[ 0 20]
+ [ 0  6]]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1555,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1508,35 +1563,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 10, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>63.2</v>
+        <v>85.7</v>
       </c>
       <c r="F33" t="n">
-        <v>42.9</v>
+        <v>30</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 3,FalsePositive: 4)</t>
+          <t>[[3 0]
+ [7 0]]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_bvp_sel_only</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1544,35 +1600,36 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>38.5</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 10,FalsePositive: 4)</t>
+          <t>[[0 3]
+ [0 4]]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
+          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_bvp_sel_only</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1580,35 +1637,36 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>89.5</v>
+        <v>75</v>
       </c>
       <c r="F35" t="n">
-        <v>88.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[19  0]
+ [ 7  0]]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_bvp_sel_only</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1616,35 +1674,36 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>96.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>23.1</v>
+        <v>70</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 6,FalsePositive: 20)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_bvp_sel_only</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1652,35 +1711,36 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 10, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>85.7</v>
+        <v>63.2</v>
       </c>
       <c r="F37" t="n">
-        <v>30</v>
+        <v>42.9</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>RightNegative: 3, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 4]
+ [0 3]]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_gsr_only</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1688,35 +1748,40 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>94.39999999999999</v>
+        <v>39.5</v>
       </c>
       <c r="F38" t="n">
-        <v>42.9</v>
+        <v>38.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>RightNegative: 3, FalseNegative: 4, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 4 0 0 0 0]
+ [0 7 0 0 0 3]
+ [0 3 0 0 0 0]
+ [0 3 0 0 0 0]
+ [0 2 0 0 0 1]
+ [0 0 0 0 0 3]]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.180</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_gsr_only</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1724,35 +1789,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>75</v>
+        <v>22.9</v>
       </c>
       <c r="F39" t="n">
-        <v>73.09999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 0 3 0 1]
+ [0 0 2 0 1]
+ [0 0 0 0 3]
+ [0 0 1 0 2]
+ [1 0 1 0 1]]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.062, F1-Score (macro): 0.036</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_gsr_only</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1760,35 +1829,36 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>75.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="F40" t="n">
-        <v>70</v>
+        <v>88.5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.208, AUC: 0.681</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>_bvp_only</t>
+          <t>_gsr_only</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1796,23 +1866,24 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 50, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>57.9</v>
+        <v>88.2</v>
       </c>
       <c r="F41" t="n">
-        <v>42.9</v>
+        <v>38.5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 3,FalsePositive: 4)</t>
+          <t>[[ 4 16]
+ [ 0  6]]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
+          <t>F1-Score: 0.43, Average Precision (Relevanz): 0.313, AUC: 0.579</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1895,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1832,23 +1903,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 200, 'gamma': 100, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39.5</v>
+        <v>89.3</v>
       </c>
       <c r="F42" t="n">
-        <v>38.5</v>
+        <v>90</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 4)</t>
+          <t>[[2 1]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.180</t>
+          <t>F1-Score: 0.93, Average Precision (Relevanz): 0.875, AUC: 0.833</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1932,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1868,23 +1940,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>86.8</v>
+        <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>88.5</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[1 2]
+ [1 3]]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.208, AUC: 0.681</t>
+          <t>F1-Score: 0.67, Average Precision (Relevanz): 0.817, AUC: 0.708</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1969,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1904,23 +1977,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 50, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 50, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>88.2</v>
+        <v>76.3</v>
       </c>
       <c r="F44" t="n">
-        <v>38.5</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>RightNegative: 4, FalseNegative: 0, RightPositive: 6,FalsePositive: 16)</t>
+          <t>[[19  0]
+ [ 7  0]]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>F1-Score: 0.43, Average Precision (Relevanz): 0.313, AUC: 0.579</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.230, AUC: 0.353</t>
         </is>
       </c>
     </row>
@@ -1932,7 +2006,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1940,23 +2014,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 100, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 100, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>89.3</v>
+        <v>86.2</v>
       </c>
       <c r="F45" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>RightNegative: 2, FalseNegative: 0, RightPositive: 7,FalsePositive: 1)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>F1-Score: 0.93, Average Precision (Relevanz): 0.875, AUC: 0.833</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.671, AUC: 0.429</t>
         </is>
       </c>
     </row>
@@ -1968,7 +2043,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1976,35 +2051,36 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 50, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>63.2</v>
       </c>
       <c r="F46" t="n">
         <v>57.09999999999999</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>RightNegative: 1, FalseNegative: 1, RightPositive: 3,FalsePositive: 2)</t>
+          <t>[[4 0]
+ [3 0]]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>F1-Score: 0.67, Average Precision (Relevanz): 0.817, AUC: 0.708</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.589, AUC: 0.667</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_gsr_only</t>
+          <t>_temp_only</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2012,35 +2088,40 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 50, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>76.3</v>
+        <v>38.2</v>
       </c>
       <c r="F47" t="n">
-        <v>73.09999999999999</v>
+        <v>38.5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[ 0  4  0  0  0  0]
+ [ 0 10  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.230, AUC: 0.353</t>
+          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>_gsr_only</t>
+          <t>_temp_only</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2048,35 +2129,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 100, 'kernel': 'rbf'}</t>
+          <t>{'C': 150, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>86.2</v>
+        <v>20.8</v>
       </c>
       <c r="F48" t="n">
-        <v>70</v>
+        <v>18.8</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[0 0 1 0 3]
+ [0 0 1 0 2]
+ [0 0 0 0 3]
+ [0 0 0 0 3]
+ [0 0 0 0 3]]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.671, AUC: 0.429</t>
+          <t>F1-Score (micro): 0.188, F1-Score (macro): 0.071</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>_gsr_only</t>
+          <t>_temp_only</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2084,23 +2169,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 50, 'kernel': 'rbf'}</t>
+          <t>{'C': 1, 'gamma': 50, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>63.2</v>
+        <v>88.2</v>
       </c>
       <c r="F49" t="n">
-        <v>57.09999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>RightNegative: 4, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[23  0]
+ [ 3  0]]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.589, AUC: 0.667</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2198,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2120,23 +2206,24 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.2</v>
+        <v>75</v>
       </c>
       <c r="F50" t="n">
-        <v>38.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 10,FalsePositive: 4)</t>
+          <t>[[20  0]
+ [ 6  0]]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.218, AUC: 0.417</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2235,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2156,23 +2243,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'C': 1, 'gamma': 50, 'kernel': 'rbf'}</t>
+          <t>{'C': 200, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>88.2</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>88.5</v>
+        <v>70</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>RightNegative: 23, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.702, AUC: 0.476</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2272,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2192,23 +2280,24 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>75</v>
+        <v>72.2</v>
       </c>
       <c r="F52" t="n">
-        <v>76.90000000000001</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>RightNegative: 20, FalseNegative: 6, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [0 4]]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.218, AUC: 0.417</t>
+          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2309,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2228,23 +2317,24 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>71.39999999999999</v>
+        <v>75</v>
       </c>
       <c r="F53" t="n">
-        <v>70</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[19  0]
+ [ 7  0]]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.702, AUC: 0.476</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.453, AUC: 0.519</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2346,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2264,23 +2354,24 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>72.2</v>
+        <v>89.7</v>
       </c>
       <c r="F54" t="n">
-        <v>57.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 4,FalsePositive: 3)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2383,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2300,35 +2391,36 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>75</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>73.09999999999999</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[4 0]
+ [3 0]]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.453, AUC: 0.519</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>_temp_only</t>
+          <t>_simple</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>complete_dict</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2336,35 +2428,40 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'C': 100, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 150, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>89.7</v>
+        <v>57.9</v>
       </c>
       <c r="F56" t="n">
-        <v>70</v>
+        <v>38.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[ 0  4  0  0  0  0]
+ [ 0 10  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]
+ [ 0  3  0  0  0  0]]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_temp_only</t>
+          <t>_simple</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>emotion_v_emotion_dict</t>
+          <t>complete_no_cd_dict</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2372,23 +2469,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>68.40000000000001</v>
+        <v>29.2</v>
       </c>
       <c r="F57" t="n">
-        <v>57.09999999999999</v>
+        <v>25</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>RightNegative: 4, FalseNegative: 3, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 1 0 0 3]
+ [0 1 0 0 2]
+ [0 0 0 0 3]
+ [0 0 0 0 3]
+ [0 0 0 0 3]]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
+          <t>F1-Score (micro): 0.250, F1-Score (macro): 0.151</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2501,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>complete_dict</t>
+          <t>rest_v_all_dict</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2408,23 +2509,24 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>53.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="F58" t="n">
-        <v>38.5</v>
+        <v>11.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 10,FalsePositive: 4)</t>
+          <t>[[ 0 23]
+ [ 0  3]]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>F1-Score (micro): 0.385, F1-Score (macro): 0.093</t>
+          <t>F1-Score: 0.21, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2538,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>rest_v_all_dict</t>
+          <t>stress_v_all_dict</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2448,19 +2550,20 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>92.10000000000001</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>11.5</v>
+        <v>23.1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 3,FalsePositive: 23)</t>
+          <t>[[ 0 20]
+ [ 0  6]]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>F1-Score: 0.21, Average Precision (Relevanz): 0.115, AUC: 0.500</t>
+          <t>F1-Score: 0.38, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2575,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>stress_v_all_dict</t>
+          <t>stress_v_rest_dict</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2480,23 +2583,24 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>86.8</v>
+        <v>89.3</v>
       </c>
       <c r="F60" t="n">
-        <v>76.90000000000001</v>
+        <v>30</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>RightNegative: 20, FalseNegative: 6, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[3 0]
+ [7 0]]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.231, AUC: 0.500</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2612,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>stress_v_rest_dict</t>
+          <t>stress_v_stress_dict</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2516,23 +2620,24 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 1, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>92.90000000000001</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>70</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[0 3]
+ [0 4]]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
+          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.571, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2649,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>stress_v_stress_dict</t>
+          <t>emotion_v_all_dict</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2552,23 +2657,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'C': 200, 'gamma': 0.001, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>83.3</v>
+        <v>75</v>
       </c>
       <c r="F62" t="n">
-        <v>57.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 4,FalsePositive: 3)</t>
+          <t>[[19  0]
+ [ 7  0]]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>F1-Score: 0.73, Average Precision (Relevanz): 0.543, AUC: 0.250</t>
+          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.269, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2686,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>emotion_v_all_dict</t>
+          <t>emotion_v_rest_dict</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2588,23 +2694,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'C': 0.001, 'gamma': 0.0001, 'kernel': 'rbf'}</t>
+          <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>75</v>
+        <v>86.2</v>
       </c>
       <c r="F63" t="n">
-        <v>73.09999999999999</v>
+        <v>70</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>RightNegative: 19, FalseNegative: 7, RightPositive: 0,FalsePositive: 0)</t>
+          <t>[[0 3]
+ [0 7]]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>F1-Score: 0.00, Average Precision (Relevanz): 0.261, AUC: 0.459</t>
+          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2723,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>emotion_v_rest_dict</t>
+          <t>emotion_v_emotion_dict</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2624,57 +2731,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
+          <t>{'C': 0.001, 'gamma': 10, 'kernel': 'rbf'}</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>86.2</v>
+        <v>52.6</v>
       </c>
       <c r="F64" t="n">
-        <v>70</v>
+        <v>42.9</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 7,FalsePositive: 3)</t>
+          <t>[[0 4]
+ [0 3]]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
-        <is>
-          <t>F1-Score: 0.82, Average Precision (Relevanz): 0.700, AUC: 0.500</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>_simple</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>emotion_v_emotion_dict</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>5</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'gamma': 50, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="F65" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>RightNegative: 0, FalseNegative: 0, RightPositive: 3,FalsePositive: 4)</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
         <is>
           <t>F1-Score: 0.60, Average Precision (Relevanz): 0.429, AUC: 0.500</t>
         </is>
